--- a/TEMPLATE.xlsx
+++ b/TEMPLATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.dovbnya\PycharmProjects\convention_internal2\convention_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.dovbnya\Desktop\convention_2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683D89B8-650E-4F5C-9740-2F647C5C9198}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952A118C-1DE8-49F6-8988-8878803F9FB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,13 +22,13 @@
     <sheet name="Своп" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Все кредиты'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ИЦБ!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Кредиты без субсидий'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Кредиты с субсидиями'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Оценка!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Своп!$A$2:$K$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Формирование субсидий'!$A$2:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Все кредиты'!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ИЦБ!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Кредиты без субсидий'!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Кредиты с субсидиями'!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Оценка!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Своп!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Формирование субсидий'!$A$2:$M$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
   <si>
     <t>isin</t>
   </si>
@@ -262,13 +262,6 @@
   </si>
   <si>
     <t>ISIN (только выпуски со смешанным типом ипотечного покрытия)</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Внутреннее название 
-сделки секьюритизации</t>
   </si>
 </sst>
 </file>
@@ -690,7 +683,7 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -699,66 +692,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="21.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="17" customWidth="1"/>
-    <col min="6" max="8" width="21.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="18" customWidth="1"/>
+    <col min="2" max="3" width="21.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="17" customWidth="1"/>
+    <col min="5" max="7" width="21.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>70</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>71</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{57F04F9C-6BE9-47B9-806E-875C2A792519}"/>
+  <autoFilter ref="A2:G2" xr:uid="{57F04F9C-6BE9-47B9-806E-875C2A792519}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -769,7 +756,7 @@
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -778,78 +765,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="21.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="14" customWidth="1"/>
-    <col min="6" max="10" width="21.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="18" customWidth="1"/>
+    <col min="2" max="3" width="21.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="14" customWidth="1"/>
+    <col min="5" max="9" width="21.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>20</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J2" xr:uid="{04AA7AEA-5643-41B6-B5C5-1EC70291E11F}"/>
+  <autoFilter ref="A2:I2" xr:uid="{04AA7AEA-5643-41B6-B5C5-1EC70291E11F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -860,6 +841,360 @@
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
   </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" style="18" customWidth="1"/>
+    <col min="2" max="3" width="21.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="14" customWidth="1"/>
+    <col min="5" max="9" width="21.42578125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:I2" xr:uid="{A3230A04-A7CF-44DC-8824-A36D6EAB381A}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D4A683-CA2A-4869-AAFE-31533084D387}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" style="18" customWidth="1"/>
+    <col min="2" max="3" width="21.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="14" customWidth="1"/>
+    <col min="5" max="9" width="21.42578125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:I2" xr:uid="{04563C2E-DD2A-4DAD-B26F-2F338EDF13FD}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D859F5-8019-42A5-9EB2-72B3DF3AE13D}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="3" width="21.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="11" customWidth="1"/>
+    <col min="7" max="10" width="21.42578125" style="6" customWidth="1"/>
+    <col min="11" max="12" width="21.42578125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:M2" xr:uid="{E255A528-0765-4DBB-8629-89CAAC50C2EA}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D812E90-B825-462B-831B-1EC830DC03BA}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="3" width="21.42578125" style="11" customWidth="1"/>
+    <col min="4" max="9" width="21.42578125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:I2" xr:uid="{90676ACA-DF56-473A-8520-B039EBD6AB73}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADED76B-3135-42B3-9633-8DDCFA1C10AA}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -869,464 +1204,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="21.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="14" customWidth="1"/>
-    <col min="6" max="10" width="21.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="3" width="21.42578125" style="11" customWidth="1"/>
+    <col min="4" max="10" width="21.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>74</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>75</v>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>20</v>
+        <v>62</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J2" xr:uid="{A3230A04-A7CF-44DC-8824-A36D6EAB381A}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D4A683-CA2A-4869-AAFE-31533084D387}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.34998626667073579"/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="21.42578125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="21.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="14" customWidth="1"/>
-    <col min="6" max="10" width="21.42578125" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:J2" xr:uid="{04563C2E-DD2A-4DAD-B26F-2F338EDF13FD}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D859F5-8019-42A5-9EB2-72B3DF3AE13D}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="4" width="21.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="11" customWidth="1"/>
-    <col min="8" max="11" width="21.42578125" style="6" customWidth="1"/>
-    <col min="12" max="13" width="21.42578125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:N2" xr:uid="{E255A528-0765-4DBB-8629-89CAAC50C2EA}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D812E90-B825-462B-831B-1EC830DC03BA}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="4" width="21.42578125" style="11" customWidth="1"/>
-    <col min="5" max="10" width="21.42578125" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:J2" xr:uid="{90676ACA-DF56-473A-8520-B039EBD6AB73}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADED76B-3135-42B3-9633-8DDCFA1C10AA}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="4" width="21.42578125" style="11" customWidth="1"/>
-    <col min="5" max="11" width="21.42578125" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:K2" xr:uid="{4E5260DC-C94E-48B3-B584-28199B1C4985}"/>
+  <autoFilter ref="A2:J2" xr:uid="{4E5260DC-C94E-48B3-B584-28199B1C4985}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TEMPLATE.xlsx
+++ b/TEMPLATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.dovbnya\Desktop\convention_2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952A118C-1DE8-49F6-8988-8878803F9FB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3322874-2C23-4E11-AB1D-AA76C9E60FD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Кредиты с субсидиями" sheetId="7" r:id="rId4"/>
     <sheet name="Формирование субсидий" sheetId="3" r:id="rId5"/>
     <sheet name="ИЦБ" sheetId="4" r:id="rId6"/>
-    <sheet name="Своп" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Все кредиты'!$A$2:$I$2</definedName>
@@ -27,7 +26,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Кредиты без субсидий'!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Кредиты с субсидиями'!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Оценка!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Своп!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Формирование субсидий'!$A$2:$M$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>isin</t>
   </si>
@@ -205,51 +203,6 @@
   </si>
   <si>
     <t>Выплата купона по по выпуску облигаций в couponDate</t>
-  </si>
-  <si>
-    <t>nettingDate</t>
-  </si>
-  <si>
-    <t>fixedSum</t>
-  </si>
-  <si>
-    <t>subsidy</t>
-  </si>
-  <si>
-    <t>reinvestment</t>
-  </si>
-  <si>
-    <t>expense</t>
-  </si>
-  <si>
-    <t>accruedYield</t>
-  </si>
-  <si>
-    <t>floatSum</t>
-  </si>
-  <si>
-    <t>Дата неттинга по свопу</t>
-  </si>
-  <si>
-    <t>Фиксированные суммы. Т.к. своп считается от лица ДОМ.РФ в отношении Ипотечного агента, фиксированные суммы указываются со знаком "минус"</t>
-  </si>
-  <si>
-    <t>Процентные поступления в рамках плавающей суммы</t>
-  </si>
-  <si>
-    <t>Поступления по субсидиям в рамках плавающей суммы</t>
-  </si>
-  <si>
-    <t>Поступления по начислениям ставки на остаток на счете ИА в рамках плавающей суммы</t>
-  </si>
-  <si>
-    <t>Расходы ИА в рамках плавающей суммы</t>
-  </si>
-  <si>
-    <t>Начисленные, но не выплаченные проценты в рамках плавающей суммы</t>
-  </si>
-  <si>
-    <t>Плавающие суммы (yield + subsidy + reinvestment − expense − accruedYield)</t>
   </si>
   <si>
     <t>zcycDateTime</t>
@@ -709,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -732,7 +685,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
@@ -887,7 +840,7 @@
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
@@ -971,7 +924,7 @@
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
@@ -1137,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>42</v>
@@ -1191,90 +1144,4 @@
   <autoFilter ref="A2:I2" xr:uid="{90676ACA-DF56-473A-8520-B039EBD6AB73}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADED76B-3135-42B3-9633-8DDCFA1C10AA}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="3" width="21.42578125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="21.42578125" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:J2" xr:uid="{4E5260DC-C94E-48B3-B584-28199B1C4985}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TEMPLATE.xlsx
+++ b/TEMPLATE.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.dovbnya\Desktop\convention_2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3322874-2C23-4E11-AB1D-AA76C9E60FD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773C5FA3-E535-4404-9364-C7F19A31DD53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Оценка" sheetId="1" r:id="rId1"/>
     <sheet name="Все кредиты" sheetId="2" r:id="rId2"/>
-    <sheet name="Кредиты без субсидий" sheetId="6" r:id="rId3"/>
-    <sheet name="Кредиты с субсидиями" sheetId="7" r:id="rId4"/>
+    <sheet name="Фиксированная часть" sheetId="6" r:id="rId3"/>
+    <sheet name="Плавающая часть" sheetId="7" r:id="rId4"/>
     <sheet name="Формирование субсидий" sheetId="3" r:id="rId5"/>
     <sheet name="ИЦБ" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Все кредиты'!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ИЦБ!$A$2:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Кредиты без субсидий'!$A$2:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Кредиты с субсидиями'!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Оценка!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Плавающая часть'!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Фиксированная часть'!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Формирование субсидий'!$A$2:$M$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -55,9 +55,6 @@
     <t>cleanPrice</t>
   </si>
   <si>
-    <t>poolModelCPR</t>
-  </si>
-  <si>
     <t>ISIN</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Чистая цена облигаций на дату оценки</t>
   </si>
   <si>
-    <t>CPR потока по ипотечному покрытию</t>
-  </si>
-  <si>
     <t>reportDate</t>
   </si>
   <si>
@@ -151,12 +145,6 @@
     <t>Ключевая ставка, по которой за месяц paymentMonth начисляется субсидия subsidyAccrued</t>
   </si>
   <si>
-    <t>Средневзвешенное по остаткам основного долга значение вычета для расчета субсидии в ипотечном покрытии на reportDate</t>
-  </si>
-  <si>
-    <t>Доля субсидируемых кредитов в ипотечном покрытии на reportDate</t>
-  </si>
-  <si>
     <t>Начисленная за paymentMonth субсидия</t>
   </si>
   <si>
@@ -215,6 +203,18 @@
   </si>
   <si>
     <t>ISIN (только выпуски со смешанным типом ипотечного покрытия)</t>
+  </si>
+  <si>
+    <t>Доля плавающей части ипотечного покрытия на reportDate</t>
+  </si>
+  <si>
+    <t>Средневзвешенное по остаткам основного долга значение вычета для расчета субсидии в плавающей части на reportDate</t>
+  </si>
+  <si>
+    <t>modelCPR</t>
+  </si>
+  <si>
+    <t>CPR денежного потока по ИЦБ ДОМ.РФ</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -671,30 +671,30 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -732,54 +732,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -817,54 +817,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -901,54 +901,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -986,78 +986,78 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="L2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="M2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1090,54 +1090,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/TEMPLATE.xlsx
+++ b/TEMPLATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.dovbnya\Desktop\convention_2.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.dovbnya\Desktop\convention\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773C5FA3-E535-4404-9364-C7F19A31DD53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D48C0D4-AB65-4BE4-8D3D-72A8152E893E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Все кредиты'!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ИЦБ!$A$2:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Оценка!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Оценка!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Плавающая часть'!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Фиксированная часть'!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Формирование субсидий'!$A$2:$M$2</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t>isin</t>
   </si>
@@ -214,7 +214,19 @@
     <t>modelCPR</t>
   </si>
   <si>
-    <t>CPR денежного потока по ИЦБ ДОМ.РФ</t>
+    <t>zSpread</t>
+  </si>
+  <si>
+    <t>requiredKeyRatePremium</t>
+  </si>
+  <si>
+    <t>Z-спред, б.п.</t>
+  </si>
+  <si>
+    <t>Требуемая надбавка, б.п.</t>
+  </si>
+  <si>
+    <t>CPR денежного потока ипотечного покрытия на протяжении периода обращения ИЦБ ДОМ.РФ</t>
   </si>
 </sst>
 </file>
@@ -306,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,6 +363,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -636,7 +657,7 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -648,10 +669,11 @@
     <col min="1" max="1" width="21.42578125" style="18" customWidth="1"/>
     <col min="2" max="3" width="21.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" style="17" customWidth="1"/>
-    <col min="5" max="7" width="21.42578125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="21.42578125" style="21" customWidth="1"/>
+    <col min="7" max="9" width="21.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -664,17 +686,23 @@
       <c r="D1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -687,18 +715,24 @@
       <c r="D2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>58</v>
+      <c r="I2" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G2" xr:uid="{57F04F9C-6BE9-47B9-806E-875C2A792519}"/>
+  <autoFilter ref="A2:I2" xr:uid="{57F04F9C-6BE9-47B9-806E-875C2A792519}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
